--- a/biology/Botanique/Stanhopea_stevensonii/Stanhopea_stevensonii.xlsx
+++ b/biology/Botanique/Stanhopea_stevensonii/Stanhopea_stevensonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea stevensonii est une espèce d'orchidée endémique de Colombie.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Épiphyte de taille petite à moyenne, avec des pseudobulbes nervurés et sillonnés d'âge portant une seule feuille apicale, dressée, grossière, coriace, plissée, lancéolée, aiguë, se rétrécissant progressivement en dessous pour former la feuille de base pétiolée cannelée qui fleurit en été sur une inflorescence basale, pendante, de 8 [à 20 cm] de long, à plusieurs fleurs avec de grandes bractées florales étalées, largement triangulaires, aiguës et portant jusqu'à 15 fleurs [boules à mites] odorantes.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette orchidée est originaire de Colombie. Il pousse dans les forêts de montagne intermédiaires à chaudes à environ 400 m d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette orchidée est originaire de Colombie. Il pousse dans les forêts de montagne intermédiaires à chaudes à environ 400 m d'altitude.
 </t>
         </is>
       </c>
